--- a/trained_models_old_clean/MLP/vertebral_2C/results_table.xlsx
+++ b/trained_models_old_clean/MLP/vertebral_2C/results_table.xlsx
@@ -504,11 +504,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6292719678840203, 'beta_2': 0.7743630713990834, 'epsilon': 0.4046364487929541, 'learning_rate': 'invscaling', 'momentum': 0.0015945706042945762, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.7791109940193555}</t>
+          <t>{'beta_1': 0.9219913763418529, 'beta_2': 0.6164181754304838, 'epsilon': 0.8869464719771861, 'learning_rate': 'constant', 'momentum': 0.06833637743884757, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.28648634831524233}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.851063829787234</v>
+        <v>0.8829787234042553</v>
       </c>
     </row>
     <row r="3">
@@ -540,7 +540,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.06389131085486015, 'beta_2': 0.4851419683386883, 'epsilon': 0.9765176446047024, 'learning_rate': 'constant', 'momentum': 0.33815895183684563, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2317016264712045}</t>
+          <t>{'beta_1': 0.19386403055813542, 'beta_2': 0.9918938015730331, 'epsilon': 0.4995213809388588, 'learning_rate': 'constant', 'momentum': 0.6586040703899139, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.35909708773029625}</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -576,11 +576,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4192651384682998, 'beta_2': 0.8862791850867102, 'epsilon': 0.9327427835511165, 'learning_rate': 'constant', 'momentum': 0.1640043891105587, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7473574586765804}</t>
+          <t>{'beta_1': 0.45136986098708987, 'beta_2': 0.07079890840602415, 'epsilon': 0.29250123740907835, 'learning_rate': 'adaptive', 'momentum': 0.4475158707610247, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.37832614484517124}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.8829787234042553</v>
+        <v>0.851063829787234</v>
       </c>
     </row>
     <row r="5">
@@ -612,11 +612,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6975502293404723, 'beta_2': 0.33516267150622375, 'epsilon': 0.14753789262850064, 'learning_rate': 'invscaling', 'momentum': 0.24190170420148482, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5219962736299825}</t>
+          <t>{'beta_1': 0.13533859015822777, 'beta_2': 0.29798404363007475, 'epsilon': 0.5693949457905636, 'learning_rate': 'invscaling', 'momentum': 0.5518162591332588, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9689617652602737}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.8829787234042553</v>
+        <v>0.8404255319148937</v>
       </c>
     </row>
     <row r="6">
@@ -648,11 +648,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.026466768750532547, 'beta_2': 0.937732718856959, 'epsilon': 0.21154464145418167, 'learning_rate': 'constant', 'momentum': 0.7759584418813597, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.1580597336011924}</t>
+          <t>{'beta_1': 0.8717780047919479, 'beta_2': 0.27326849278082016, 'epsilon': 0.7972487870786511, 'learning_rate': 'invscaling', 'momentum': 0.6798794564067695, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.48340861659875267}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.8085106382978723</v>
+        <v>0.8829787234042553</v>
       </c>
     </row>
     <row r="7">
@@ -684,7 +684,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.25788256259212416, 'beta_2': 0.6780159472597682, 'epsilon': 0.9366530275650521, 'learning_rate': 'invscaling', 'momentum': 0.4768013639288602, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.528741511699448}</t>
+          <t>{'beta_1': 0.7455682327730924, 'beta_2': 0.6994113130413, 'epsilon': 0.6646454584360839, 'learning_rate': 'adaptive', 'momentum': 0.18219764492303292, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5440711336888929}</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -720,11 +720,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.3589121456430256, 'beta_2': 0.3990994114057741, 'epsilon': 0.30152904505158906, 'learning_rate': 'constant', 'momentum': 0.23223414217094274, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9528706723868426}</t>
+          <t>{'beta_1': 0.8717780047919479, 'beta_2': 0.27326849278082016, 'epsilon': 0.7972487870786511, 'learning_rate': 'invscaling', 'momentum': 0.6798794564067695, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.48340861659875267}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.7340425531914894</v>
+        <v>0.8404255319148937</v>
       </c>
     </row>
     <row r="9">
@@ -756,7 +756,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.28254252745470015, 'beta_2': 0.6953619013990796, 'epsilon': 0.19861124423877946, 'learning_rate': 'invscaling', 'momentum': 0.08688567080227105, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.23989203008963}</t>
+          <t>{'beta_1': 0.32472218177934414, 'beta_2': 0.03838700104626199, 'epsilon': 0.6336397838993777, 'learning_rate': 'adaptive', 'momentum': 0.10204481074802807, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.16130951788499626}</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -792,11 +792,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6640009209479042, 'beta_2': 0.42263138572595504, 'epsilon': 0.19879194898555852, 'learning_rate': 'constant', 'momentum': 0.6495342241752968, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8668609136593749}</t>
+          <t>{'beta_1': 0.6114836269996989, 'beta_2': 0.6163170628778821, 'epsilon': 0.9428043304361096, 'learning_rate': 'invscaling', 'momentum': 0.4499499899112276, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9023485831739843}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.8829787234042553</v>
+        <v>0.7978723404255319</v>
       </c>
     </row>
     <row r="11">
@@ -828,11 +828,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.04044956203133352, 'beta_2': 0.4913894165920973, 'epsilon': 0.8142308472831555, 'learning_rate': 'constant', 'momentum': 0.6939881399885446, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5704366902119271}</t>
+          <t>{'beta_1': 0.4142472780505331, 'beta_2': 0.2642910564925223, 'epsilon': 0.7734594557447825, 'learning_rate': 'constant', 'momentum': 0.5684339488686485, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6176354970758771}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.8829787234042553</v>
+        <v>0.8936170212765957</v>
       </c>
     </row>
     <row r="12">
@@ -864,7 +864,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8689782231423873, 'beta_2': 0.20529362738332577, 'epsilon': 0.4244277865056076, 'learning_rate': 'invscaling', 'momentum': 0.0651214685488184, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.3240523212034009}</t>
+          <t>{'beta_1': 0.16350940116725574, 'beta_2': 0.25999228591183354, 'epsilon': 0.370846170726364, 'learning_rate': 'adaptive', 'momentum': 0.26810926491253906, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.039210539213897055}</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -900,7 +900,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.24917062101539475, 'beta_2': 0.10580024872734997, 'epsilon': 0.9500016584443387, 'learning_rate': 'constant', 'momentum': 0.3581074751151223, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9167270193301819}</t>
+          <t>{'beta_1': 0.7735785965307255, 'beta_2': 0.559813330110261, 'epsilon': 0.08241100957801228, 'learning_rate': 'adaptive', 'momentum': 0.8850222549385791, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.009687626994602683}</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -936,11 +936,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9605927561922608, 'beta_2': 0.12141669440209722, 'epsilon': 0.09906428797137679, 'learning_rate': 'invscaling', 'momentum': 0.6224848742605995, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.603038139426371}</t>
+          <t>{'beta_1': 0.9692515820896902, 'beta_2': 0.6632022018183769, 'epsilon': 0.2928512581040585, 'learning_rate': 'invscaling', 'momentum': 0.06320761833863064, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.4776465028764161}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.8829787234042553</v>
+        <v>0.7340425531914894</v>
       </c>
     </row>
     <row r="15">
@@ -972,11 +972,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.33989100308262865, 'beta_2': 0.2381323969631391, 'epsilon': 0.5098902102881291, 'learning_rate': 'invscaling', 'momentum': 0.2536073790650063, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9126706209463072}</t>
+          <t>{'beta_1': 0.5284109891018522, 'beta_2': 0.30414191798303086, 'epsilon': 0.9969642890773448, 'learning_rate': 'invscaling', 'momentum': 0.5973029395241212, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.005189627256445006}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.8829787234042553</v>
+        <v>0.8404255319148937</v>
       </c>
     </row>
     <row r="16">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4142472780505331, 'beta_2': 0.2642910564925223, 'epsilon': 0.7734594557447825, 'learning_rate': 'constant', 'momentum': 0.5684339488686485, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6176354970758771}</t>
+          <t>{'beta_1': 0.08498174250517425, 'beta_2': 0.2329405774274087, 'epsilon': 0.08129034701900123, 'learning_rate': 'adaptive', 'momentum': 0.3676261733862233, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6780594102120125}</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1044,11 +1044,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8867323269570756, 'beta_2': 0.35414507380630195, 'epsilon': 0.8132998216596776, 'learning_rate': 'adaptive', 'momentum': 0.09067076824664133, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.3007589027504035}</t>
+          <t>{'beta_1': 0.7421553937886406, 'beta_2': 0.1958047535264583, 'epsilon': 0.28604321732657556, 'learning_rate': 'invscaling', 'momentum': 0.045677082037155925, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.16897605441274532}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.8404255319148937</v>
+        <v>0.8829787234042553</v>
       </c>
     </row>
     <row r="18">
@@ -1080,11 +1080,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6508527181139733, 'beta_2': 0.38159210878680017, 'epsilon': 0.33820372777845686, 'learning_rate': 'invscaling', 'momentum': 0.6141750023638414, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.1992281464241792}</t>
+          <t>{'beta_1': 0.66957812472251, 'beta_2': 0.2207600533518455, 'epsilon': 0.3350163768849147, 'learning_rate': 'constant', 'momentum': 0.9666819873735142, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9328824379767133}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.8829787234042553</v>
+        <v>0.7340425531914894</v>
       </c>
     </row>
     <row r="19">
@@ -1116,11 +1116,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6114836269996989, 'beta_2': 0.6163170628778821, 'epsilon': 0.9428043304361096, 'learning_rate': 'invscaling', 'momentum': 0.4499499899112276, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9023485831739843}</t>
+          <t>{'beta_1': 0.824955554146974, 'beta_2': 0.29643507613087744, 'epsilon': 0.14667350486551128, 'learning_rate': 'invscaling', 'momentum': 0.3648573130917908, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9598271493776032}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.8829787234042553</v>
+        <v>0.8404255319148937</v>
       </c>
     </row>
     <row r="20">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4192651384682998, 'beta_2': 0.8862791850867102, 'epsilon': 0.9327427835511165, 'learning_rate': 'constant', 'momentum': 0.1640043891105587, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7473574586765804}</t>
+          <t>{'beta_1': 0.35997366440967493, 'beta_2': 0.015548161006208759, 'epsilon': 0.8009786503545239, 'learning_rate': 'constant', 'momentum': 0.030288410155906775, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.0445096271486205}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.7978723404255319</v>
+        <v>0.8829787234042553</v>
       </c>
     </row>
     <row r="21">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7746514249422546, 'beta_2': 0.7964955714083342, 'epsilon': 0.7807090265923036, 'learning_rate': 'invscaling', 'momentum': 0.72685102950692, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.03669141786941299}</t>
+          <t>{'beta_1': 0.034075793806106, 'beta_2': 0.6638365496169778, 'epsilon': 0.8668194881681545, 'learning_rate': 'constant', 'momentum': 0.8757651744100993, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.08029435501699689}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.8723404255319149</v>
+        <v>0.8829787234042553</v>
       </c>
     </row>
   </sheetData>
